--- a/result/gr75_07_simulated/details.xlsx
+++ b/result/gr75_07_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7160012722015381</v>
+        <v>0.535651683807373</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2088.072159199244</v>
+        <v>2071.077284009994</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09936253150056118</v>
+        <v>0.09619130775575722</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07647734813436113</v>
+        <v>0.07223841429772591</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06437172765368451</v>
+        <v>0.06676356350911204</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05593452961463802</v>
+        <v>0.06079769944338075</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05201976802135459</v>
+        <v>0.05688322710620693</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05201976802135459</v>
+        <v>0.05201052365066593</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04849734357047401</v>
+        <v>0.04790697293061796</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04661312585239929</v>
+        <v>0.04700289203824763</v>
       </c>
       <c r="N2" t="n">
-        <v>0.04482316600110892</v>
+        <v>0.04589928630816623</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04471144987800458</v>
+        <v>0.04474933810467559</v>
       </c>
       <c r="P2" t="n">
-        <v>0.04351553323196947</v>
+        <v>0.04385171672781851</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.04351553323196947</v>
+        <v>0.04368924682026759</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04277247310205643</v>
+        <v>0.04273167645536627</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04225354708029827</v>
+        <v>0.04226820158176906</v>
       </c>
       <c r="T2" t="n">
-        <v>0.04179074476127169</v>
+        <v>0.04181561970001633</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04157571675131345</v>
+        <v>0.04121798640775895</v>
       </c>
       <c r="V2" t="n">
-        <v>0.04157571675131345</v>
+        <v>0.04099929559833988</v>
       </c>
       <c r="W2" t="n">
-        <v>0.04097805953069595</v>
+        <v>0.04089451099853177</v>
       </c>
       <c r="X2" t="n">
-        <v>0.04079423372485352</v>
+        <v>0.04037187688128643</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.04070316099803594</v>
+        <v>0.04037187688128643</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8299977779388428</v>
+        <v>0.5624661445617676</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2157.111660278513</v>
+        <v>2057.554492135037</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1024932068266266</v>
+        <v>0.1040496186592716</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08002596493362422</v>
+        <v>0.07852545682778474</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0683773749857505</v>
+        <v>0.06799769908357159</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0637095075873827</v>
+        <v>0.05995013616928857</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06072118225784568</v>
+        <v>0.05436748848585393</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05474189213537904</v>
+        <v>0.05262684830478694</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05296941248574067</v>
+        <v>0.05040055608563304</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05126972548657926</v>
+        <v>0.04897208881178181</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04739471238759047</v>
+        <v>0.04706496158420085</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04735148296084572</v>
+        <v>0.04566894768263621</v>
       </c>
       <c r="P3" t="n">
-        <v>0.04633777713619706</v>
+        <v>0.04529196877940888</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.04397715276338188</v>
+        <v>0.0450072194052421</v>
       </c>
       <c r="R3" t="n">
-        <v>0.04397715276338188</v>
+        <v>0.04345335319870472</v>
       </c>
       <c r="S3" t="n">
-        <v>0.04397715276338188</v>
+        <v>0.04220894050307804</v>
       </c>
       <c r="T3" t="n">
-        <v>0.04369918002478752</v>
+        <v>0.04195759414312396</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04300428014170573</v>
+        <v>0.04077691356683637</v>
       </c>
       <c r="V3" t="n">
-        <v>0.04266017709474326</v>
+        <v>0.04068566410494948</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0424647122812151</v>
+        <v>0.04067129025268212</v>
       </c>
       <c r="X3" t="n">
-        <v>0.04204896023934723</v>
+        <v>0.040388671062328</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.04204896023934723</v>
+        <v>0.04010827470048806</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7360014915466309</v>
+        <v>0.6526522636413574</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1996.741543359697</v>
+        <v>2045.657615153921</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1049323761632748</v>
+        <v>0.1058966226493461</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07328764114675404</v>
+        <v>0.08168233285313317</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0650995047800471</v>
+        <v>0.06520092173693254</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05837409643080126</v>
+        <v>0.06190800821996038</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05331604871903489</v>
+        <v>0.05388679412764582</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05046254738791624</v>
+        <v>0.05158533012751397</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04725885209892363</v>
+        <v>0.05043725681206127</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04529603987235037</v>
+        <v>0.04780562854854443</v>
       </c>
       <c r="N4" t="n">
-        <v>0.04421590462957603</v>
+        <v>0.04594422824248828</v>
       </c>
       <c r="O4" t="n">
-        <v>0.04188510746104127</v>
+        <v>0.04457799036002094</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04180232124207366</v>
+        <v>0.04391200502607547</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.04116486748304909</v>
+        <v>0.0432908698470944</v>
       </c>
       <c r="R4" t="n">
-        <v>0.04069248832414615</v>
+        <v>0.04189930247207337</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04044376436736677</v>
+        <v>0.04138855878638478</v>
       </c>
       <c r="T4" t="n">
-        <v>0.03958387209277796</v>
+        <v>0.04102833526821031</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03958387209277796</v>
+        <v>0.04102499667620754</v>
       </c>
       <c r="V4" t="n">
-        <v>0.03951173740721566</v>
+        <v>0.04078021788252928</v>
       </c>
       <c r="W4" t="n">
-        <v>0.03932287189345859</v>
+        <v>0.04017908764446591</v>
       </c>
       <c r="X4" t="n">
-        <v>0.03920246915640703</v>
+        <v>0.04017908764446591</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0389228371025282</v>
+        <v>0.03987636676713296</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6099922657012939</v>
+        <v>0.5312309265136719</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2076.441421796571</v>
+        <v>2128.316071840802</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1028369746994808</v>
+        <v>0.1014106158508676</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07411886029928501</v>
+        <v>0.07734609197650608</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06792850635027366</v>
+        <v>0.0672092307138519</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05856667078958618</v>
+        <v>0.06034149114522559</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05303775115406867</v>
+        <v>0.05295198064463549</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05268465759672725</v>
+        <v>0.05164385609715772</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04761954384238596</v>
+        <v>0.05120934465906372</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04549570824476099</v>
+        <v>0.04749055353248344</v>
       </c>
       <c r="N5" t="n">
-        <v>0.04464705140382979</v>
+        <v>0.04714585341636379</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04381276052919414</v>
+        <v>0.04589705072690506</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04355932196265502</v>
+        <v>0.04471134070215605</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04331228837192524</v>
+        <v>0.04350719542978648</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04275101363314789</v>
+        <v>0.04350719542978648</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04224046380574954</v>
+        <v>0.04334102314932626</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0417487403892801</v>
+        <v>0.04334102314932626</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04153359783345036</v>
+        <v>0.04284520127094011</v>
       </c>
       <c r="V5" t="n">
-        <v>0.04121586421730351</v>
+        <v>0.04238194029115867</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04090110321101845</v>
+        <v>0.04214751964972674</v>
       </c>
       <c r="X5" t="n">
-        <v>0.04076033658968862</v>
+        <v>0.0417914160602707</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.04047644097069339</v>
+        <v>0.04148764272594155</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6760034561157227</v>
+        <v>0.5312235355377197</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2135.336059916467</v>
+        <v>2089.482074480426</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09928745055646052</v>
+        <v>0.1070702801801101</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07802224034809077</v>
+        <v>0.08224452964030782</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0671978959029758</v>
+        <v>0.06704998608794363</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05945434755672717</v>
+        <v>0.06237069232982922</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05679188258190614</v>
+        <v>0.05663261033094853</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05368234188582651</v>
+        <v>0.05035931689133639</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05164005900991961</v>
+        <v>0.04974081658381365</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0511778993838781</v>
+        <v>0.04794766821577437</v>
       </c>
       <c r="N6" t="n">
-        <v>0.04921894680206186</v>
+        <v>0.04726705088474455</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04728375802179303</v>
+        <v>0.04596727177957116</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04513306336525331</v>
+        <v>0.04465097466534084</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.04407707268848098</v>
+        <v>0.04327076948844024</v>
       </c>
       <c r="R6" t="n">
-        <v>0.04407707268848098</v>
+        <v>0.04310315915729114</v>
       </c>
       <c r="S6" t="n">
-        <v>0.04327164275054819</v>
+        <v>0.04238366874698696</v>
       </c>
       <c r="T6" t="n">
-        <v>0.04327164275054819</v>
+        <v>0.04189124902669924</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04288614035786482</v>
+        <v>0.04156098884270207</v>
       </c>
       <c r="V6" t="n">
-        <v>0.04236278479197398</v>
+        <v>0.0412698971866995</v>
       </c>
       <c r="W6" t="n">
-        <v>0.04236278479197398</v>
+        <v>0.0412698971866995</v>
       </c>
       <c r="X6" t="n">
-        <v>0.04204252758159473</v>
+        <v>0.0409294147286717</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.04162448459876153</v>
+        <v>0.04073064472671394</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5750021934509277</v>
+        <v>0.5468769073486328</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2050.613122861014</v>
+        <v>2131.481860065461</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1032087860522385</v>
+        <v>0.101986988194821</v>
       </c>
       <c r="G7" t="n">
-        <v>0.074670400574208</v>
+        <v>0.07880670922953129</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06432473024108691</v>
+        <v>0.06808897355705008</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05877111630947239</v>
+        <v>0.05985535578245233</v>
       </c>
       <c r="J7" t="n">
-        <v>0.054591796624727</v>
+        <v>0.05771031829357398</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04965211016880016</v>
+        <v>0.05487149031878988</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04729546627745121</v>
+        <v>0.05088061676398413</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04414628723803981</v>
+        <v>0.04884595960345284</v>
       </c>
       <c r="N7" t="n">
-        <v>0.04414628723803981</v>
+        <v>0.04873356011969549</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04414628723803981</v>
+        <v>0.04722432012245849</v>
       </c>
       <c r="P7" t="n">
-        <v>0.04345090971348196</v>
+        <v>0.04597338384321248</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.04252967177209836</v>
+        <v>0.04452845603562638</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0423633227227232</v>
+        <v>0.04403729197979303</v>
       </c>
       <c r="S7" t="n">
-        <v>0.04136160722076284</v>
+        <v>0.04365048283670805</v>
       </c>
       <c r="T7" t="n">
-        <v>0.04081623155888803</v>
+        <v>0.04256797770551562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04076677940927088</v>
+        <v>0.04256797770551562</v>
       </c>
       <c r="V7" t="n">
-        <v>0.04026253609217807</v>
+        <v>0.04235309423509115</v>
       </c>
       <c r="W7" t="n">
-        <v>0.04026253609217807</v>
+        <v>0.04191376068224167</v>
       </c>
       <c r="X7" t="n">
-        <v>0.04026253609217807</v>
+        <v>0.04174204147940629</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.03997296535791449</v>
+        <v>0.04154935399737739</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.58797287940979</v>
+        <v>0.5469000339508057</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2045.30990858682</v>
+        <v>2023.597818987548</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1037240142135901</v>
+        <v>0.10635682504802</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07968222776737098</v>
+        <v>0.0787425836271604</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06803113434261941</v>
+        <v>0.06317020909966578</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05696347788973029</v>
+        <v>0.06083868724956316</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05174606731995004</v>
+        <v>0.05224694444057304</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05015377064184819</v>
+        <v>0.05079948933075137</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0459957187969665</v>
+        <v>0.04679759354251271</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04417238114100451</v>
+        <v>0.04451570961916811</v>
       </c>
       <c r="N8" t="n">
-        <v>0.04417238114100451</v>
+        <v>0.04260177248118992</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04306918721344628</v>
+        <v>0.04260177248118992</v>
       </c>
       <c r="P8" t="n">
-        <v>0.04247345077125698</v>
+        <v>0.0424792610823708</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04211099464115912</v>
+        <v>0.04185941795933858</v>
       </c>
       <c r="R8" t="n">
-        <v>0.04191408558361274</v>
+        <v>0.04115732576758711</v>
       </c>
       <c r="S8" t="n">
-        <v>0.04120706483530983</v>
+        <v>0.04058292982752929</v>
       </c>
       <c r="T8" t="n">
-        <v>0.04073508877931249</v>
+        <v>0.04058277460324134</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04073508877931249</v>
+        <v>0.04012328508221332</v>
       </c>
       <c r="V8" t="n">
-        <v>0.04069355033209935</v>
+        <v>0.03999567083629275</v>
       </c>
       <c r="W8" t="n">
-        <v>0.04039676891252107</v>
+        <v>0.0397885404476403</v>
       </c>
       <c r="X8" t="n">
-        <v>0.04011592562824486</v>
+        <v>0.03968658582795639</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.03986958886134151</v>
+        <v>0.03944635124732061</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5399978160858154</v>
+        <v>0.5625021457672119</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2159.499518400566</v>
+        <v>2188.927713588515</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09929008240949165</v>
+        <v>0.09981227416678248</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07734303196221887</v>
+        <v>0.08105305313694013</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06593563220624443</v>
+        <v>0.06504013132723083</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05913256428072754</v>
+        <v>0.0642658463312468</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05376866318207679</v>
+        <v>0.0566330759569494</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05123988715311731</v>
+        <v>0.05484037832781292</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04908040694818385</v>
+        <v>0.05245023030293218</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04899908542074456</v>
+        <v>0.0506326366221254</v>
       </c>
       <c r="N9" t="n">
-        <v>0.04828005319371769</v>
+        <v>0.05040430636392628</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04674376945531442</v>
+        <v>0.04912444697181451</v>
       </c>
       <c r="P9" t="n">
-        <v>0.04567386524951108</v>
+        <v>0.04776848210919447</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04567386524951108</v>
+        <v>0.04611261178391163</v>
       </c>
       <c r="R9" t="n">
-        <v>0.04420398075977271</v>
+        <v>0.04512115879110108</v>
       </c>
       <c r="S9" t="n">
-        <v>0.04344738259516755</v>
+        <v>0.04489355553977513</v>
       </c>
       <c r="T9" t="n">
-        <v>0.04255006780986683</v>
+        <v>0.0436685956492556</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04255006780986683</v>
+        <v>0.0436685956492556</v>
       </c>
       <c r="V9" t="n">
-        <v>0.04255006780986683</v>
+        <v>0.04349667922416686</v>
       </c>
       <c r="W9" t="n">
-        <v>0.04255006780986683</v>
+        <v>0.04325422737153308</v>
       </c>
       <c r="X9" t="n">
-        <v>0.04230024730291827</v>
+        <v>0.04304032999293108</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.04209550718129756</v>
+        <v>0.04266915621030242</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5450394153594971</v>
+        <v>0.5312457084655762</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2095.462516252908</v>
+        <v>2165.246174192705</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1029410323508845</v>
+        <v>0.1015685571709321</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07931097155951333</v>
+        <v>0.07964939477719087</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06979274795649115</v>
+        <v>0.07349770844569661</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06078580291224561</v>
+        <v>0.0614359846432076</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05336729824617974</v>
+        <v>0.05682152990597198</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05336729824617974</v>
+        <v>0.0526554293413596</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04859487100614395</v>
+        <v>0.05081796689348621</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04594063172728115</v>
+        <v>0.04975104484224832</v>
       </c>
       <c r="N10" t="n">
-        <v>0.04576291384494444</v>
+        <v>0.04811227984098332</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04515513620549366</v>
+        <v>0.04688742127765749</v>
       </c>
       <c r="P10" t="n">
-        <v>0.04411901213014929</v>
+        <v>0.0464303792717419</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.04291589964554502</v>
+        <v>0.04548788139789175</v>
       </c>
       <c r="R10" t="n">
-        <v>0.04248331075894475</v>
+        <v>0.04422384413117018</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0421446743365668</v>
+        <v>0.04399170218543218</v>
       </c>
       <c r="T10" t="n">
-        <v>0.04182514391299667</v>
+        <v>0.04380502205492436</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04147826932240684</v>
+        <v>0.04333447037814719</v>
       </c>
       <c r="V10" t="n">
-        <v>0.04127802192437704</v>
+        <v>0.04296702883607389</v>
       </c>
       <c r="W10" t="n">
-        <v>0.04098523659168593</v>
+        <v>0.04268705812098521</v>
       </c>
       <c r="X10" t="n">
-        <v>0.04097134845767807</v>
+        <v>0.04232799530331249</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.04084722253904303</v>
+        <v>0.04220752776204102</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5479891300201416</v>
+        <v>0.5625011920928955</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2040.580311093179</v>
+        <v>2015.003410304233</v>
       </c>
       <c r="F11" t="n">
-        <v>0.108832141291871</v>
+        <v>0.1007093365244257</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08230851695946328</v>
+        <v>0.08042950830259647</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0696219482827007</v>
+        <v>0.07078516099194082</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06021304619492316</v>
+        <v>0.06317145840179626</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05413047691701547</v>
+        <v>0.05702202550025649</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05129898806291744</v>
+        <v>0.05361338590460223</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04686719726774376</v>
+        <v>0.05052797549419286</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04522159711202468</v>
+        <v>0.04772597507931552</v>
       </c>
       <c r="N11" t="n">
-        <v>0.04426233692391391</v>
+        <v>0.04538390676528678</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04426233692391391</v>
+        <v>0.04400997132533806</v>
       </c>
       <c r="P11" t="n">
-        <v>0.04329986269369582</v>
+        <v>0.04326183534608958</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.04311797550180848</v>
+        <v>0.04233703784903481</v>
       </c>
       <c r="R11" t="n">
-        <v>0.04185518912829233</v>
+        <v>0.0417885173722594</v>
       </c>
       <c r="S11" t="n">
-        <v>0.04111706005167189</v>
+        <v>0.04170332060492521</v>
       </c>
       <c r="T11" t="n">
-        <v>0.04071288097415222</v>
+        <v>0.0411024583268873</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04066330737379786</v>
+        <v>0.04079794178216076</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0404875037018363</v>
+        <v>0.04008594606816723</v>
       </c>
       <c r="W11" t="n">
-        <v>0.04033503842642577</v>
+        <v>0.03956030520877849</v>
       </c>
       <c r="X11" t="n">
-        <v>0.04021460142858539</v>
+        <v>0.03956030520877849</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.03977739397842454</v>
+        <v>0.03927881891431251</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr75_07_simulated/details.xlsx
+++ b/result/gr75_07_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.535651683807373</v>
+        <v>1.131002426147461</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2071.077284009994</v>
+        <v>2285.848009800326</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09619130775575722</v>
+        <v>0.1492674433751622</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07223841429772591</v>
+        <v>0.09927312128244237</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06676356350911204</v>
+        <v>0.08356394355512026</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06079769944338075</v>
+        <v>0.07094213120565727</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05688322710620693</v>
+        <v>0.06374305997962727</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05201052365066593</v>
+        <v>0.06042746198794464</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04790697293061796</v>
+        <v>0.05630360086731506</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04700289203824763</v>
+        <v>0.05376523078475696</v>
       </c>
       <c r="N2" t="n">
-        <v>0.04589928630816623</v>
+        <v>0.05180309660096867</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04474933810467559</v>
+        <v>0.04960818795206661</v>
       </c>
       <c r="P2" t="n">
-        <v>0.04385171672781851</v>
+        <v>0.04901414518779094</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.04368924682026759</v>
+        <v>0.04837361249679491</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04273167645536627</v>
+        <v>0.04731814764838346</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04226820158176906</v>
+        <v>0.04630324371111674</v>
       </c>
       <c r="T2" t="n">
-        <v>0.04181561970001633</v>
+        <v>0.04591971167623956</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04121798640775895</v>
+        <v>0.04534233822172413</v>
       </c>
       <c r="V2" t="n">
-        <v>0.04099929559833988</v>
+        <v>0.0451183433964567</v>
       </c>
       <c r="W2" t="n">
-        <v>0.04089451099853177</v>
+        <v>0.04463444409226793</v>
       </c>
       <c r="X2" t="n">
-        <v>0.04037187688128643</v>
+        <v>0.04463444409226793</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.04037187688128643</v>
+        <v>0.04455844073684844</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5624661445617676</v>
+        <v>1.190001726150513</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2057.554492135037</v>
+        <v>2362.986396963865</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1040496186592716</v>
+        <v>0.142518954151997</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07852545682778474</v>
+        <v>0.104924393502459</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06799769908357159</v>
+        <v>0.08605364978551151</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05995013616928857</v>
+        <v>0.07472330671174886</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05436748848585393</v>
+        <v>0.06799877980648114</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05262684830478694</v>
+        <v>0.06407211526365073</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05040055608563304</v>
+        <v>0.06046114218799448</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04897208881178181</v>
+        <v>0.0570009633516655</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04706496158420085</v>
+        <v>0.05399215083133196</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04566894768263621</v>
+        <v>0.05141699583495936</v>
       </c>
       <c r="P3" t="n">
-        <v>0.04529196877940888</v>
+        <v>0.05045752684389462</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0450072194052421</v>
+        <v>0.04865556793157465</v>
       </c>
       <c r="R3" t="n">
-        <v>0.04345335319870472</v>
+        <v>0.04783956815136844</v>
       </c>
       <c r="S3" t="n">
-        <v>0.04220894050307804</v>
+        <v>0.04754354116390101</v>
       </c>
       <c r="T3" t="n">
-        <v>0.04195759414312396</v>
+        <v>0.04711166554577965</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04077691356683637</v>
+        <v>0.04677639768616505</v>
       </c>
       <c r="V3" t="n">
-        <v>0.04068566410494948</v>
+        <v>0.04654384518588429</v>
       </c>
       <c r="W3" t="n">
-        <v>0.04067129025268212</v>
+        <v>0.04628456918939834</v>
       </c>
       <c r="X3" t="n">
-        <v>0.040388671062328</v>
+        <v>0.04613053831405734</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.04010827470048806</v>
+        <v>0.04606211300124492</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6526522636413574</v>
+        <v>1.260991811752319</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2045.657615153921</v>
+        <v>2383.158573206422</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1058966226493461</v>
+        <v>0.1597815532138741</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08168233285313317</v>
+        <v>0.1253258001093468</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06520092173693254</v>
+        <v>0.1014737287122646</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06190800821996038</v>
+        <v>0.0841952438886662</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05388679412764582</v>
+        <v>0.07286675371608217</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05158533012751397</v>
+        <v>0.06837339469812451</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05043725681206127</v>
+        <v>0.06133123828773693</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04780562854854443</v>
+        <v>0.05722132850364586</v>
       </c>
       <c r="N4" t="n">
-        <v>0.04594422824248828</v>
+        <v>0.05554737553449812</v>
       </c>
       <c r="O4" t="n">
-        <v>0.04457799036002094</v>
+        <v>0.05386505168302744</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04391200502607547</v>
+        <v>0.05134690024041998</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0432908698470944</v>
+        <v>0.05061573506943681</v>
       </c>
       <c r="R4" t="n">
-        <v>0.04189930247207337</v>
+        <v>0.04877636775381985</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04138855878638478</v>
+        <v>0.04819422613550696</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04102833526821031</v>
+        <v>0.04762666636509488</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04102499667620754</v>
+        <v>0.04746910083031759</v>
       </c>
       <c r="V4" t="n">
-        <v>0.04078021788252928</v>
+        <v>0.04720758485143456</v>
       </c>
       <c r="W4" t="n">
-        <v>0.04017908764446591</v>
+        <v>0.04679346753995573</v>
       </c>
       <c r="X4" t="n">
-        <v>0.04017908764446591</v>
+        <v>0.04654805430447385</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.03987636676713296</v>
+        <v>0.04645533281104136</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5312309265136719</v>
+        <v>1.094999551773071</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2128.316071840802</v>
+        <v>2468.072067458463</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1014106158508676</v>
+        <v>0.1560211332194928</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07734609197650608</v>
+        <v>0.1139715125125783</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0672092307138519</v>
+        <v>0.09425086627053438</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06034149114522559</v>
+        <v>0.08227598158509403</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05295198064463549</v>
+        <v>0.07341310455469066</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05164385609715772</v>
+        <v>0.06866760843607088</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05120934465906372</v>
+        <v>0.0642129113050203</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04749055353248344</v>
+        <v>0.06124358251091944</v>
       </c>
       <c r="N5" t="n">
-        <v>0.04714585341636379</v>
+        <v>0.05805259529311178</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04589705072690506</v>
+        <v>0.05573763543145198</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04471134070215605</v>
+        <v>0.05371759157563079</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04350719542978648</v>
+        <v>0.05240420446385861</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04350719542978648</v>
+        <v>0.05053398558361499</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04334102314932626</v>
+        <v>0.04988151982314276</v>
       </c>
       <c r="T5" t="n">
-        <v>0.04334102314932626</v>
+        <v>0.04933834129776322</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04284520127094011</v>
+        <v>0.0491608504091707</v>
       </c>
       <c r="V5" t="n">
-        <v>0.04238194029115867</v>
+        <v>0.04862180270722717</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04214751964972674</v>
+        <v>0.04843348271426458</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0417914160602707</v>
+        <v>0.04811056661712402</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.04148764272594155</v>
+        <v>0.04811056661712402</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5312235355377197</v>
+        <v>1.08699893951416</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2089.482074480426</v>
+        <v>2265.73661717935</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1070702801801101</v>
+        <v>0.1569513906080221</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08224452964030782</v>
+        <v>0.1145969035750158</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06704998608794363</v>
+        <v>0.0878055940856502</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06237069232982922</v>
+        <v>0.07751555953865025</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05663261033094853</v>
+        <v>0.06392747071487516</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05035931689133639</v>
+        <v>0.06280885706358273</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04974081658381365</v>
+        <v>0.05690542300489374</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04794766821577437</v>
+        <v>0.05426424343776942</v>
       </c>
       <c r="N6" t="n">
-        <v>0.04726705088474455</v>
+        <v>0.05085165263168894</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04596727177957116</v>
+        <v>0.0491783133956552</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04465097466534084</v>
+        <v>0.04821242079287541</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.04327076948844024</v>
+        <v>0.0474903587538722</v>
       </c>
       <c r="R6" t="n">
-        <v>0.04310315915729114</v>
+        <v>0.04654083827867433</v>
       </c>
       <c r="S6" t="n">
-        <v>0.04238366874698696</v>
+        <v>0.04535546648210063</v>
       </c>
       <c r="T6" t="n">
-        <v>0.04189124902669924</v>
+        <v>0.04527476729455628</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04156098884270207</v>
+        <v>0.04492010272346388</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0412698971866995</v>
+        <v>0.04463757835488501</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0412698971866995</v>
+        <v>0.04439264935692733</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0409294147286717</v>
+        <v>0.04420694926437773</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.04073064472671394</v>
+        <v>0.04416640579296978</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5468769073486328</v>
+        <v>1.157040119171143</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2131.481860065461</v>
+        <v>2352.684319576196</v>
       </c>
       <c r="F7" t="n">
-        <v>0.101986988194821</v>
+        <v>0.1550122527548267</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07880670922953129</v>
+        <v>0.1100146301376521</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06808897355705008</v>
+        <v>0.08382014488319389</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05985535578245233</v>
+        <v>0.07331600036465011</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05771031829357398</v>
+        <v>0.06808463662108849</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05487149031878988</v>
+        <v>0.06189364923249952</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05088061676398413</v>
+        <v>0.05909631201699142</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04884595960345284</v>
+        <v>0.05623909263071907</v>
       </c>
       <c r="N7" t="n">
-        <v>0.04873356011969549</v>
+        <v>0.05369488767192627</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04722432012245849</v>
+        <v>0.05196913272154202</v>
       </c>
       <c r="P7" t="n">
-        <v>0.04597338384321248</v>
+        <v>0.05019685912516</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.04452845603562638</v>
+        <v>0.04846097577208427</v>
       </c>
       <c r="R7" t="n">
-        <v>0.04403729197979303</v>
+        <v>0.04784620632332751</v>
       </c>
       <c r="S7" t="n">
-        <v>0.04365048283670805</v>
+        <v>0.04744387233475768</v>
       </c>
       <c r="T7" t="n">
-        <v>0.04256797770551562</v>
+        <v>0.04714401845024079</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04256797770551562</v>
+        <v>0.04647603446757589</v>
       </c>
       <c r="V7" t="n">
-        <v>0.04235309423509115</v>
+        <v>0.0464513904704754</v>
       </c>
       <c r="W7" t="n">
-        <v>0.04191376068224167</v>
+        <v>0.04597399509160776</v>
       </c>
       <c r="X7" t="n">
-        <v>0.04174204147940629</v>
+        <v>0.04597399509160776</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.04154935399737739</v>
+        <v>0.04586129277926307</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5469000339508057</v>
+        <v>1.116955518722534</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2023.597818987548</v>
+        <v>2411.399905805347</v>
       </c>
       <c r="F8" t="n">
-        <v>0.10635682504802</v>
+        <v>0.1581735178394743</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0787425836271604</v>
+        <v>0.1151072765022438</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06317020909966578</v>
+        <v>0.08758054339072222</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06083868724956316</v>
+        <v>0.07763434698001426</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05224694444057304</v>
+        <v>0.06915994076357546</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05079948933075137</v>
+        <v>0.06263384221932879</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04679759354251271</v>
+        <v>0.05834116406380992</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04451570961916811</v>
+        <v>0.05589758898682473</v>
       </c>
       <c r="N8" t="n">
-        <v>0.04260177248118992</v>
+        <v>0.05399699699508318</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04260177248118992</v>
+        <v>0.05203118666239887</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0424792610823708</v>
+        <v>0.05072641937310073</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04185941795933858</v>
+        <v>0.04940227929220654</v>
       </c>
       <c r="R8" t="n">
-        <v>0.04115732576758711</v>
+        <v>0.04879686319712696</v>
       </c>
       <c r="S8" t="n">
-        <v>0.04058292982752929</v>
+        <v>0.04853150123953228</v>
       </c>
       <c r="T8" t="n">
-        <v>0.04058277460324134</v>
+        <v>0.04799773772654729</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04012328508221332</v>
+        <v>0.04779700662334977</v>
       </c>
       <c r="V8" t="n">
-        <v>0.03999567083629275</v>
+        <v>0.04736408415554227</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0397885404476403</v>
+        <v>0.04716691497779268</v>
       </c>
       <c r="X8" t="n">
-        <v>0.03968658582795639</v>
+        <v>0.04702763746077111</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.03944635124732061</v>
+        <v>0.04700584611706328</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5625021457672119</v>
+        <v>1.317004203796387</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2188.927713588515</v>
+        <v>2276.414977535259</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09981227416678248</v>
+        <v>0.1576915360629395</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08105305313694013</v>
+        <v>0.1128895512954495</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06504013132723083</v>
+        <v>0.0934351732615671</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0642658463312468</v>
+        <v>0.07809099820825018</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0566330759569494</v>
+        <v>0.0697054198824677</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05484037832781292</v>
+        <v>0.06086284299627368</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05245023030293218</v>
+        <v>0.0575400081423296</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0506326366221254</v>
+        <v>0.05323320524962289</v>
       </c>
       <c r="N9" t="n">
-        <v>0.05040430636392628</v>
+        <v>0.04903408897605753</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04912444697181451</v>
+        <v>0.04903408897605753</v>
       </c>
       <c r="P9" t="n">
-        <v>0.04776848210919447</v>
+        <v>0.04838660241012335</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04611261178391163</v>
+        <v>0.04754397832309903</v>
       </c>
       <c r="R9" t="n">
-        <v>0.04512115879110108</v>
+        <v>0.04698481320790254</v>
       </c>
       <c r="S9" t="n">
-        <v>0.04489355553977513</v>
+        <v>0.04608641376181987</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0436685956492556</v>
+        <v>0.04555903653330343</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0436685956492556</v>
+        <v>0.04522077187801338</v>
       </c>
       <c r="V9" t="n">
-        <v>0.04349667922416686</v>
+        <v>0.044979784835726</v>
       </c>
       <c r="W9" t="n">
-        <v>0.04325422737153308</v>
+        <v>0.04452432437335015</v>
       </c>
       <c r="X9" t="n">
-        <v>0.04304032999293108</v>
+        <v>0.04452432437335015</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.04266915621030242</v>
+        <v>0.04437456096559958</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5312457084655762</v>
+        <v>1.1629958152771</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2165.246174192705</v>
+        <v>2290.704095957106</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1015685571709321</v>
+        <v>0.155347510747666</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07964939477719087</v>
+        <v>0.1164104181492145</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07349770844569661</v>
+        <v>0.08649217211694712</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0614359846432076</v>
+        <v>0.07296873653094224</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05682152990597198</v>
+        <v>0.06384972792215189</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0526554293413596</v>
+        <v>0.05905698642189849</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05081796689348621</v>
+        <v>0.05394857392454826</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04975104484224832</v>
+        <v>0.052710317435791</v>
       </c>
       <c r="N10" t="n">
-        <v>0.04811227984098332</v>
+        <v>0.05012317142428308</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04688742127765749</v>
+        <v>0.04744869778508713</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0464303792717419</v>
+        <v>0.04720219055050031</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.04548788139789175</v>
+        <v>0.04711515187910845</v>
       </c>
       <c r="R10" t="n">
-        <v>0.04422384413117018</v>
+        <v>0.046011653304181</v>
       </c>
       <c r="S10" t="n">
-        <v>0.04399170218543218</v>
+        <v>0.046011653304181</v>
       </c>
       <c r="T10" t="n">
-        <v>0.04380502205492436</v>
+        <v>0.04582807128646074</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04333447037814719</v>
+        <v>0.04539591579879913</v>
       </c>
       <c r="V10" t="n">
-        <v>0.04296702883607389</v>
+        <v>0.04501762408629759</v>
       </c>
       <c r="W10" t="n">
-        <v>0.04268705812098521</v>
+        <v>0.04474130201131095</v>
       </c>
       <c r="X10" t="n">
-        <v>0.04232799530331249</v>
+        <v>0.04473971006833578</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.04220752776204102</v>
+        <v>0.04465310128571356</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5625011920928955</v>
+        <v>1.191977739334106</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2015.003410304233</v>
+        <v>2300.205917159951</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1007093365244257</v>
+        <v>0.1577255335033474</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08042950830259647</v>
+        <v>0.1171180033527798</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07078516099194082</v>
+        <v>0.09452084297694177</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06317145840179626</v>
+        <v>0.07647482893275717</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05702202550025649</v>
+        <v>0.0610476541669706</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05361338590460223</v>
+        <v>0.06008237746882798</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05052797549419286</v>
+        <v>0.05468951491541064</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04772597507931552</v>
+        <v>0.05292749173776914</v>
       </c>
       <c r="N11" t="n">
-        <v>0.04538390676528678</v>
+        <v>0.05143223255301915</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04400997132533806</v>
+        <v>0.04966243436083274</v>
       </c>
       <c r="P11" t="n">
-        <v>0.04326183534608958</v>
+        <v>0.04850126991900149</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.04233703784903481</v>
+        <v>0.04776537280549033</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0417885173722594</v>
+        <v>0.04686487193968189</v>
       </c>
       <c r="S11" t="n">
-        <v>0.04170332060492521</v>
+        <v>0.04636640177525734</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0411024583268873</v>
+        <v>0.04572593831358305</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04079794178216076</v>
+        <v>0.04533756330361025</v>
       </c>
       <c r="V11" t="n">
-        <v>0.04008594606816723</v>
+        <v>0.04515364188010709</v>
       </c>
       <c r="W11" t="n">
-        <v>0.03956030520877849</v>
+        <v>0.04501804778834525</v>
       </c>
       <c r="X11" t="n">
-        <v>0.03956030520877849</v>
+        <v>0.04501804778834525</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.03927881891431251</v>
+        <v>0.04483832197192886</v>
       </c>
     </row>
   </sheetData>
